--- a/member-list/distribution/部員名簿-テンプレート.xlsx
+++ b/member-list/distribution/部員名簿-テンプレート.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fitacjp.sharepoint.com/sites/msteams_e12b8c-/Shared Documents/代議員会/2022年度(R4)/部員名簿/2月/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamur\OneDrive - 福岡工業大学\代議員会 共有\2023年度(R5)\部員名簿\7月\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{3CD22E70-305E-4B24-B668-3EB4BAF9F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED17076-5DB3-412A-94E9-E4565ADE6C3B}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{3CD22E70-305E-4B24-B668-3EB4BAF9F9C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DDA8D4-04B4-4459-9539-F3EA50BA30B2}"/>
   <bookViews>
-    <workbookView xWindow="4118" yWindow="2490" windowWidth="24682" windowHeight="13260" xr2:uid="{334F141A-BD54-4C91-A948-DB2AE9AD67FF}"/>
+    <workbookView xWindow="4125" yWindow="2490" windowWidth="24675" windowHeight="13260" xr2:uid="{334F141A-BD54-4C91-A948-DB2AE9AD67FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -69,16 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>団体メール使用者</t>
-    <rPh sb="0" eb="2">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HP更新担当者</t>
     <rPh sb="2" eb="4">
       <t>コウシン</t>
@@ -92,6 +75,25 @@
     <t>電話番号</t>
     <rPh sb="0" eb="4">
       <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体
+メール
+使用者</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シヨウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -417,13 +419,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +521,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -484,10 +548,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,1742 +890,1907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561998EF-7EFE-4314-B230-45755A5DE247}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="11" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.65" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E3" s="8"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E4" s="2"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E5" s="2"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E10" s="2"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E15" s="2"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E19" s="2"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E20" s="2"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E21" s="2"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E22" s="2"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E23" s="2"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E24" s="2"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E25" s="2"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E26" s="2"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E27" s="2"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E28" s="2"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E29" s="2"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E30" s="2"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E31" s="2"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E32" s="2"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E33" s="2"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E34" s="2"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E35" s="2"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E36" s="2"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E37" s="2"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E38" s="2"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E39" s="2"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E40" s="2"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E41" s="2"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E42" s="2"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E43" s="2"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E44" s="2"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E45" s="2"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E46" s="2"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E47" s="2"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E48" s="2"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E49" s="2"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E50" s="2"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E51" s="2"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E52" s="2"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E53" s="2"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E54" s="2"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E55" s="2"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E56" s="2"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E57" s="2"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E58" s="2"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E59" s="2"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E60" s="2"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E61" s="2"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E62" s="2"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E63" s="2"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E64" s="2"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E65" s="2"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E66" s="2"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E67" s="2"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E68" s="2"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E69" s="2"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E70" s="2"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E71" s="2"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E72" s="2"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E73" s="2"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E74" s="2"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E75" s="2"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E76" s="2"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E77" s="2"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E78" s="2"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E79" s="2"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E80" s="2"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E81" s="2"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E82" s="2"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E83" s="2"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E84" s="2"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E85" s="2"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E86" s="2"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E87" s="2"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E88" s="2"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E89" s="2"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E90" s="2"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E91" s="2"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E92" s="2"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E93" s="2"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E94" s="2"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E95" s="2"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E96" s="2"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E97" s="2"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E98" s="2"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E99" s="2"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E100" s="2"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E101" s="2"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E102" s="2"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E103" s="2"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E104" s="2"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E105" s="2"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E106" s="2"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E107" s="2"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E108" s="2"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E109" s="2"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E110" s="2"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E111" s="2"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E112" s="2"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E113" s="2"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E114" s="2"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E115" s="2"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E116" s="2"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E117" s="2"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E118" s="2"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E119" s="2"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E120" s="2"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E121" s="2"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E122" s="2"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E123" s="2"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E124" s="2"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E125" s="2"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E126" s="2"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E127" s="2"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="17"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E128" s="2"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E129" s="2"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E130" s="2"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E131" s="2"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E132" s="2"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E133" s="2"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E134" s="2"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E135" s="2"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E136" s="2"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E137" s="2"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E138" s="2"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E139" s="2"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E140" s="2"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E141" s="2"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E142" s="2"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E143" s="2"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E144" s="2"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E145" s="2"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E146" s="2"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E147" s="2"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E148" s="2"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E149" s="2"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="E150" s="2"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E151" s="2"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>150</v>
       </c>
-      <c r="B152" s="5"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="6"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="F3">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D3=""</formula>
+      <formula>$E3=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E152">
+  <conditionalFormatting sqref="F4:F152">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D4=""</formula>
+      <formula>$E4=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G152" xr:uid="{B7338301-BC6A-41AC-94BD-ED83C48F2562}">
-      <formula1>"☑,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D152" xr:uid="{9DB80FBA-3B79-415D-B8DA-426D2422A156}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E152" xr:uid="{9DB80FBA-3B79-415D-B8DA-426D2422A156}">
       <formula1>"部長・主将,会計長,総務,副部長・副主将,副会計長,マネージャー"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B152" xr:uid="{D7754112-F9E5-4A51-8D44-32D62F1D0AB6}">
+      <formula1>"入部,在籍,卒部,退部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H152" xr:uid="{DFEFE559-EF3C-492D-A619-5F416C39E31B}">
+      <formula1>"➕新規,☑使用,🗑️削除"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.60876623376623373" right="0.14204545454545456" top="0.66287878787878785" bottom="0.31114718614718617" header="0.3" footer="0.3"/>
+  <printOptions headings="1"/>
+  <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.54112554112554112" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L令和4年度2月&amp;R&amp;F</oddHeader>
+    <oddHeader>&amp;L令和5年度7月&amp;R部員名簿-</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2570,10 +2799,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005F259B5953E50E4D9EE66A26C0E8FB41" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="524f4f925bcfd721cb2cd5e3890a0112">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29c861dc-4355-4c7f-8fc5-456e3ecd03d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="577de942405bcfa78912bbd3892f491b" ns2:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005F259B5953E50E4D9EE66A26C0E8FB41" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d43b5e116e46197740288ae54965f972">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29c861dc-4355-4c7f-8fc5-456e3ecd03d9" xmlns:ns3="4e54704d-5098-46ab-87f9-bf0760a6ca16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb872bd5d1d53a521f75121fb9811e00" ns2:_="" ns3:_="">
     <xsd:import namespace="29c861dc-4355-4c7f-8fc5-456e3ecd03d9"/>
+    <xsd:import namespace="4e54704d-5098-46ab-87f9-bf0760a6ca16"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2587,6 +2817,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2632,6 +2864,36 @@
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e54704d-5098-46ab-87f9-bf0760a6ca16" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2734,13 +2996,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557EEA3F-4CC8-4FE4-9B4C-7A981F56B505}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4e54704d-5098-46ab-87f9-bf0760a6ca16"/>
+    <ds:schemaRef ds:uri="29c861dc-4355-4c7f-8fc5-456e3ecd03d9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C535D78-F2EE-4E55-9EBD-0D114A98B34C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2748,14 +3021,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C34B502-A881-401A-8A54-1E5E0BA2C784}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4242FBCC-3799-41DE-BB35-E28B208A40DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="29c861dc-4355-4c7f-8fc5-456e3ecd03d9"/>
+    <ds:schemaRef ds:uri="4e54704d-5098-46ab-87f9-bf0760a6ca16"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2764,13 +3038,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557EEA3F-4CC8-4FE4-9B4C-7A981F56B505}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>